--- a/report/reliability/by-unidade/Instituto de Computação - IC.xlsx
+++ b/report/reliability/by-unidade/Instituto de Computação - IC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -4128,31 +4128,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.747356526616189</v>
+        <v>0.7304099690864869</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7650977511475937</v>
+        <v>0.7514680408690875</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.914079661907901</v>
+        <v>0.9082387155093715</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.21348041803681014</v>
+        <v>0.2012581461039946</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.2570899379865863</v>
+        <v>3.0236273978480863</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.04830022036573562</v>
+        <v>0.048327678449108215</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.946327683615819</v>
+        <v>2.425141242937853</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7326804028800451</v>
+        <v>0.6649933949586705</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.207496943008262</v>
+        <v>0.16604497791500414</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4202,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7298393002954721</v>
+        <v>0.7209017710132123</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7421919667553255</v>
+        <v>0.7435839778417714</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8922324172753981</v>
+        <v>0.8906006889727003</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2074274185587676</v>
+        <v>0.20862810076244598</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.8788550822655816</v>
+        <v>2.899912304945288</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.05181094591014009</v>
+        <v>0.05010361435455397</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.0661384674043594</v>
+        <v>0.09258710348989874</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.19714196658978034</v>
+        <v>0.1415096140240618</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4231,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7346434406614627</v>
+        <v>0.7276444635747338</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7465790135474898</v>
+        <v>0.7519252680010541</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8924057340314364</v>
+        <v>0.8953157367733042</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2112435430168799</v>
+        <v>0.21602408875899998</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.9460031073132718</v>
+        <v>3.0310433551299742</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.05070228286386886</v>
+        <v>0.048700235462720336</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06572827126501615</v>
+        <v>0.09307136229603903</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.21080196684088523</v>
+        <v>0.2095844734406853</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4260,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.722973675171521</v>
+        <v>0.7070010229255672</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7365405033203426</v>
+        <v>0.7117959043104124</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8911426084864895</v>
+        <v>0.8872641062534814</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2026472027967143</v>
+        <v>0.1833561037129223</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.7956498535936554</v>
+        <v>2.469763320355647</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.05258323186830173</v>
+        <v>0.05365126546547465</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.06380496631633192</v>
+        <v>0.07518985709586473</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.20530152502507232</v>
+        <v>0.1415096140240618</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4289,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7227335571795379</v>
+        <v>0.6713144888697363</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7331099263070349</v>
+        <v>0.7119969463763633</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8859169937463739</v>
+        <v>0.8849909636103404</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.19981732373619446</v>
+        <v>0.18350292342466998</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.7468609684990253</v>
+        <v>2.4721854071269784</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.05200319934478647</v>
+        <v>0.061731951894888594</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.061394142495765074</v>
+        <v>0.07446732462236019</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.20530152502507232</v>
+        <v>0.1415096140240618</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4318,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7173042297440025</v>
+        <v>0.6652207157388823</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7483703787497927</v>
+        <v>0.7088912440506298</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8798651298033804</v>
+        <v>0.8853326440224948</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.21282916271074862</v>
+        <v>0.18125169361904975</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.974094921859985</v>
+        <v>2.4351422949776205</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.055056074388718804</v>
+        <v>0.0631450969334453</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.06056070411131135</v>
+        <v>0.07438286595917885</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.20530152502507232</v>
+        <v>0.1415096140240618</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4347,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7099102054204764</v>
+        <v>0.7309240330974578</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7437698437479529</v>
+        <v>0.7553489308355901</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8781090891363236</v>
+        <v>0.9064173887818587</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.20878912991905865</v>
+        <v>0.21916337954990162</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.90274124883382</v>
+        <v>3.08745403572294</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.05671659418971973</v>
+        <v>0.04896791586040337</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.06071458906091496</v>
+        <v>0.08064319831364244</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20530152502507232</v>
+        <v>0.2095844734406853</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4376,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7554355961989065</v>
+        <v>0.7330988060428851</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7770638707688663</v>
+        <v>0.7477536992612634</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8943572471626458</v>
+        <v>0.8901821207871844</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.24062463144614618</v>
+        <v>0.2122814910172406</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.4855896774058928</v>
+        <v>2.9643792478675324</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.04593452859697372</v>
+        <v>0.04514810026242896</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.05910121821830434</v>
+        <v>0.08080998405339594</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.22666714043443642</v>
+        <v>0.1890989732387376</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4405,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7768137297391003</v>
+        <v>0.7586552890981316</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7891364145146109</v>
+        <v>0.7616040588057883</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.900153950681166</v>
+        <v>0.9001003390494585</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2538529603853202</v>
+        <v>0.22506300049523625</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.7424025238785976</v>
+        <v>3.194702288095331</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04217486966687687</v>
+        <v>0.0406657829954003</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.053213115276231335</v>
+        <v>0.07711851601474999</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.22742507666395634</v>
+        <v>0.2095844734406853</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4434,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7196389698557355</v>
+        <v>0.6968262190910346</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7404076424499236</v>
+        <v>0.7244057530429419</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9079145674150115</v>
+        <v>0.9022398478358421</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2059019406013975</v>
+        <v>0.19286923559448532</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.8521935292609513</v>
+        <v>2.628522768676717</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.054364937742254156</v>
+        <v>0.054650930608069505</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06487386389561019</v>
+        <v>0.0880337260181573</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.20530152502507232</v>
+        <v>0.1272884098794257</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4463,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7401324385077946</v>
+        <v>0.7248895796649518</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7603012931919512</v>
+        <v>0.7515896022879964</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9152409326938981</v>
+        <v>0.9099295492656035</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.22381636372303568</v>
+        <v>0.21571962467930167</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.1719040261689933</v>
+        <v>3.0255963889215183</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.050551159636593214</v>
+        <v>0.05002880156412815</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06802910683775448</v>
+        <v>0.09225605799252368</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.19714196658978034</v>
+        <v>0.15044184703601057</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4492,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7059760081253947</v>
+        <v>0.6893906977780749</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7223557686955043</v>
+        <v>0.7134089840661407</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8920833443822105</v>
+        <v>0.8856145732694386</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.19127943943437764</v>
+        <v>0.18453842812223958</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.6017315947878914</v>
+        <v>2.489292910112661</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.056194594303313763</v>
+        <v>0.055076901942665527</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06425197175132806</v>
+        <v>0.09061312086354648</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.16226371864555234</v>
+        <v>0.08320330085130717</v>
       </c>
     </row>
     <row r="22">
@@ -4521,28 +4521,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7166169662126463</v>
+        <v>0.6976518183017458</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7376046459116697</v>
+        <v>0.7241881826438675</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9005797198691281</v>
+        <v>0.8933085033931176</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2035359001130809</v>
+        <v>0.19269968351144248</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.8110430860119937</v>
+        <v>2.625660457864953</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05448508345068966</v>
+        <v>0.05403392429105634</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06616105712927879</v>
+        <v>0.09139063667626754</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.19714196658978034</v>
+        <v>0.15044184703601057</v>
       </c>
     </row>
     <row r="23">
@@ -4592,16 +4592,16 @@
         <v>59.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.5084370208171988</v>
+        <v>0.4078369594097452</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.5807477782129015</v>
+        <v>0.45224157440016904</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.5532195167349577</v>
+        <v>0.4055990752878072</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.4176407813086116</v>
+        <v>0.2967569060143332</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.6779661016949152</v>
@@ -4618,16 +4618,16 @@
         <v>59.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.4582365815884156</v>
+        <v>0.32906112873304394</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5476359306436538</v>
+        <v>0.38673933246454484</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5213217220809638</v>
+        <v>0.33360767353431137</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.3711638165364406</v>
+        <v>0.2226121660380544</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.3559322033898304</v>
@@ -4644,22 +4644,22 @@
         <v>59.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.563975363259784</v>
+        <v>0.7476095460728844</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6222248781866057</v>
+        <v>0.6760619031656513</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.607803206874183</v>
+        <v>0.7019531361154415</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4534656720743548</v>
+        <v>0.7197519886282392</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4915254237288136</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.26454136917006</v>
+        <v>0.4712667436374851</v>
       </c>
     </row>
     <row r="30">
@@ -4670,22 +4670,22 @@
         <v>59.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5693783594109473</v>
+        <v>0.75259563022728</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6467792461376161</v>
+        <v>0.6747616008552236</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6419871378548201</v>
+        <v>0.7041676023865311</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4444315193452381</v>
+        <v>0.6031520499173002</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.983050847457627</v>
+        <v>1.3559322033898304</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.420193350407744</v>
+        <v>2.032178310330947</v>
       </c>
     </row>
     <row r="31">
@@ -4696,22 +4696,22 @@
         <v>59.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6528275818899375</v>
+        <v>0.7712693533124477</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5338777846024343</v>
+        <v>0.6946995184734149</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5529827428651234</v>
+        <v>0.7234889380972317</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4863967651909743</v>
+        <v>0.6303035819192156</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.3559322033898304</v>
+        <v>1.3389830508474576</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.032178310330947</v>
+        <v>2.030883700056714</v>
       </c>
     </row>
     <row r="32">
@@ -4722,22 +4722,22 @@
         <v>59.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6835205954175881</v>
+        <v>0.27365386061678665</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5689324458016587</v>
+        <v>0.3589363418448028</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5896994100096464</v>
+        <v>0.3170975739871668</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5269189228092016</v>
+        <v>0.2377763761237877</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.3389830508474576</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.030883700056714</v>
+        <v>0.30484112618719755</v>
       </c>
     </row>
     <row r="33">
@@ -4748,16 +4748,16 @@
         <v>59.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.30619989579876317</v>
+        <v>0.3672343959693085</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.29270134133267406</v>
+        <v>0.4198854845219394</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.2610040909210479</v>
+        <v>0.40367547850824914</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.15749669570481983</v>
+        <v>0.2073512750888238</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>3.0508474576271185</v>
@@ -4774,16 +4774,16 @@
         <v>59.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.20230309740383898</v>
+        <v>0.26055576448379225</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.17792143406349015</v>
+        <v>0.30668660879090426</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.13814742977487743</v>
+        <v>0.27578019274192356</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.021026685265150318</v>
+        <v>0.06239143909364336</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>3.389830508474576</v>
@@ -4800,16 +4800,16 @@
         <v>59.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.596797061520784</v>
+        <v>0.6161205970168147</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5939840848766706</v>
+        <v>0.5918092696619228</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5427280338129972</v>
+        <v>0.5368368393345831</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.46315800446690036</v>
+        <v>0.4710236353721272</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>2.3389830508474576</v>
@@ -4826,16 +4826,16 @@
         <v>59.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.38984220296167404</v>
+        <v>0.3575354038186749</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4385437541941358</v>
+        <v>0.38943580517629045</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3570541906743215</v>
+        <v>0.30422766204888635</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2996433782752636</v>
+        <v>0.2553785734794534</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>3.1016949152542375</v>
@@ -4852,16 +4852,16 @@
         <v>59.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6998568196310981</v>
+        <v>0.6571972141600005</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7208609818537183</v>
+        <v>0.6655906991099417</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7081584856820914</v>
+        <v>0.6477949431442769</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6184922713386191</v>
+        <v>0.5570319059188886</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.8135593220338984</v>
@@ -4878,16 +4878,16 @@
         <v>59.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6134891251953749</v>
+        <v>0.6004822710440431</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6145138062868998</v>
+        <v>0.5933109002174801</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5861899202254746</v>
+        <v>0.5641492674237018</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5112272087904828</v>
+        <v>0.4838525389445654</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.457627118644068</v>
@@ -4992,22 +4992,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.05084745762711865</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.05084745762711865</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.01694915254237288</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3050847457627119</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.3898305084745763</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.1864406779661017</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5018,22 +5018,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.05084745762711865</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.01694915254237288</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05084745762711865</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.23728813559322035</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.06779661016949153</v>
+        <v>0.11864406779661017</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.576271186440678</v>
+        <v>0.13559322033898305</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5050,16 +5050,16 @@
         <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E47" t="n" s="112">
         <v>0.06779661016949153</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.11864406779661017</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.13559322033898305</v>
+        <v>0.15254237288135594</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5070,22 +5070,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.6779661016949152</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.01694915254237288</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.06779661016949153</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.0847457627118644</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.15254237288135594</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5323,31 +5323,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8351477031422198</v>
+        <v>0.8734483453817574</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.842013472549994</v>
+        <v>0.9912387807349281</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8758037156262282</v>
+        <v>0.9880182647420885</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5712595397002161</v>
+        <v>0.9741689649289859</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.329653649210342</v>
+        <v>113.13936459582293</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03346783557035254</v>
+        <v>0.003249610459099422</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.8771186440677967</v>
+        <v>1.0056497175141244</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9518277351522314</v>
+        <v>1.5015847636379924</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5611841276872975</v>
+        <v>0.9764305699724232</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5394,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8233773181169758</v>
+        <v>0.9905292877309604</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8236616164886862</v>
+        <v>0.9905293892464333</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8148122154178469</v>
+        <v>0.981236480482583</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6089123703230631</v>
+        <v>0.981236480482583</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.6709150899970675</v>
+        <v>104.58981105029527</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03481050341105498</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.03699178983796907</v>
-      </c>
+        <v>0.002465949964084907</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6082885293934583</v>
+        <v>0.9812364804825829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8100473711912977</v>
+        <v>0.5963952061904312</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.808332992464394</v>
+        <v>0.9821053325188429</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7825061247717566</v>
+        <v>0.9648398443319512</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5843368150119422</v>
+        <v>0.9648398443319512</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.217382025512294</v>
+        <v>54.88256954497699</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.0401215481271238</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.03685905623649374</v>
-      </c>
+        <v>0.013437548321558274</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5140797259811366</v>
+        <v>0.9648398443319512</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7636425135297654</v>
+        <v>0.6011647567161373</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7957810245723878</v>
+        <v>0.9880747493053066</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7416842438355896</v>
+        <v>0.9764305699724233</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5650096435481432</v>
+        <v>0.9764305699724232</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.8967046177080698</v>
+        <v>82.85567948227637</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.05203851378229161</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.012639844968776553</v>
-      </c>
+        <v>0.010925422078986958</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6082885293934583</v>
+        <v>0.9764305699724232</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7507729302645139</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7695606756515996</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7079256050367886</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5267793299177163</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.3395371116784887</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.05631392116544705</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.013631902585424228</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5140797259811366</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5484,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>59.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9800812646770959</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9889758743979277</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9796087671810977</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9752224849888238</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4712667436374851</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>59.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7483899238008419</v>
+        <v>0.9956402613544207</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7893927138521257</v>
+        <v>0.9944890966760945</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6964335927073539</v>
+        <v>0.9922433177334253</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.5928569913392047</v>
+        <v>0.9856434284393519</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.6779661016949152</v>
+        <v>1.3559322033898304</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.9903095643857286</v>
+        <v>2.032178310330947</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>59.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.7720271901107554</v>
+        <v>0.9944223003692466</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8117699987304707</v>
+        <v>0.9905918188299487</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7439755263033108</v>
+        <v>0.9843338321067094</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6434578758781366</v>
+        <v>0.981691959680652</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.3559322033898304</v>
+        <v>1.3389830508474576</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9052092892769811</v>
+        <v>2.030883700056714</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>59.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8639638432851692</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8293683649225192</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.796882852554966</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7261462326960969</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4915254237288136</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.26454136917006</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>59.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8976306187105617</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8641789972059497</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8460421965033204</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7656520610494573</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.983050847457627</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.420193350407744</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.06779661016949153</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.11864406779661017</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="C27" t="n" s="225">
         <v>0.0</v>
       </c>
-      <c r="C27" t="n" s="225">
+      <c r="D27" t="n" s="226">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.06779661016949153</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.288135593220339</v>
-      </c>
       <c r="F27" t="n" s="228">
-        <v>0.4745762711864407</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.1694915254237288</v>
+        <v>0.15254237288135594</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03389830508474576</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.1864406779661017</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1694915254237288</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.6101694915254238</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3050847457627119</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.3898305084745763</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.1864406779661017</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.23728813559322035</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.576271186440678</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5870,28 +5783,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8584225309344873</v>
+        <v>0.7622982321291314</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8649105508171577</v>
+        <v>0.8991681276822489</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7619756764013725</v>
+        <v>0.8571771845055984</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7619756764013728</v>
+        <v>0.7482693321624604</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>6.402502608819659</v>
+        <v>8.917499070618291</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.035738941897727715</v>
+        <v>0.025384898696622745</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.2203389830508473</v>
+        <v>2.446327683615819</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.387354175128768</v>
+        <v>1.0068922817349126</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.7619756764013726</v>
@@ -5941,53 +5854,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="283">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7619756764013726</v>
+        <v>0.8584225309344873</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7619756764013726</v>
+        <v>0.8649105508171577</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5806069314273292</v>
+        <v>0.7619756764013725</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.7619756764013726</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7619756764013726</v>
-      </c>
+        <v>0.7619756764013728</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>6.402502608819659</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.035738941897727715</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7619756764013726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="283">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n" s="288">
+        <v>0.4191407614390501</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.8372413522008311</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.720047409482212</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.7200474094822118</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>5.144066773237878</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.04007935322622525</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.7200474094822119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.5806069314273292</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.7619756764013726</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5806069314273292</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.7619756764013726</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.4919152812571168</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8654316315227866</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7627849106037967</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7627849106037967</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>6.431166858274956</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.038699120881281024</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7627849106037968</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +5939,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>59.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9278827545821202</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9386095238173786</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8193236868993542</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7619756764013726</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.0508474576271185</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3572757808548523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>59.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9484981575452283</v>
+        <v>0.8244822638705601</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9386095238173786</v>
+        <v>0.9072304421666877</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8193236868993542</v>
+        <v>0.8330020798482376</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7619756764013726</v>
+        <v>0.7877056186340174</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.30484112618719755</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>59.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9293057093618933</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.922551090213929</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8685063597966867</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7925457476488923</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.0508474576271185</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3572757808548523</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>59.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9439294460398017</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9069347468443164</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8322492342233185</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7826017053317054</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.389830508474576</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.5975946267645553</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.1016949152542373</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="339">
         <v>0.1016949152542373</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="340">
         <v>0.05084745762711865</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.05084745762711865</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.3559322033898305</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.3728813559322034</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.06779661016949153</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="339">
         <v>0.1016949152542373</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.05084745762711865</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1016949152542373</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.11864406779661017</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.3559322033898305</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2711864406779661</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6243,31 +6243,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8747852233676976</v>
+        <v>0.7854889589905363</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8752476739142858</v>
+        <v>0.7874126489568463</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171025</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171026</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.0158826001602925</v>
+        <v>3.703948730218697</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.03252569465683058</v>
+        <v>0.05546706973479674</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.635593220338983</v>
+        <v>4.016949152542373</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.166450955538801</v>
+        <v>0.8608641493155906</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171026</v>
       </c>
     </row>
     <row r="7">
@@ -6314,48 +6314,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171026</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171026</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6055473814911535</v>
+        <v>0.4216758283330978</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171026</v>
       </c>
       <c r="F11" s="407"/>
       <c r="G11" s="408"/>
       <c r="H11" t="n" s="409">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171026</v>
       </c>
       <c r="I11" t="n" s="410">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6055473814911535</v>
+        <v>0.4216758283330978</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171026</v>
       </c>
       <c r="D12" s="405"/>
       <c r="E12" s="406"/>
       <c r="F12" s="407"/>
       <c r="G12" s="408"/>
       <c r="H12" t="n" s="409">
-        <v>0.6055473814911535</v>
+        <v>0.4216758283330978</v>
       </c>
       <c r="I12" t="n" s="410">
-        <v>0.7781692499007871</v>
+        <v>0.6493657123171026</v>
       </c>
     </row>
     <row r="13">
@@ -6399,54 +6399,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="424">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n" s="429">
         <v>59.0</v>
       </c>
       <c r="C17" t="n" s="430">
-        <v>0.9403356881236795</v>
+        <v>0.9165914509088229</v>
       </c>
       <c r="D17" t="n" s="431">
-        <v>0.9429128405904724</v>
+        <v>0.9081205075090812</v>
       </c>
       <c r="E17" t="n" s="432">
-        <v>0.8317802087666971</v>
+        <v>0.7317928465932828</v>
       </c>
       <c r="F17" t="n" s="433">
-        <v>0.7781692499007873</v>
+        <v>0.6493657123171026</v>
       </c>
       <c r="G17" t="n" s="434">
-        <v>2.8135593220338984</v>
+        <v>3.6779661016949152</v>
       </c>
       <c r="H17" t="n" s="435">
-        <v>1.2102233517311565</v>
+        <v>0.9903095643857286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>59.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9454347339331451</v>
+        <v>0.8992605663737328</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9429128405904724</v>
+        <v>0.9081205075090812</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8317802087666971</v>
+        <v>0.731792846593283</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7781692499007873</v>
+        <v>0.6493657123171026</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.457627118644068</v>
+        <v>4.3559322033898304</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2638478997627278</v>
+        <v>0.9052092892769811</v>
       </c>
     </row>
     <row r="19">
@@ -6467,19 +6467,19 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="453">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="453">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="453">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="453">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="453">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="453">
         <v>43</v>
@@ -6487,22 +6487,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="449">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n" s="454">
-        <v>0.0847457627118644</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C23" t="n" s="455">
-        <v>0.01694915254237288</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n" s="456">
-        <v>0.2711864406779661</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="E23" t="n" s="457">
-        <v>0.2542372881355932</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="F23" t="n" s="458">
-        <v>0.3728813559322034</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="G23" t="n" s="459">
         <v>0.0</v>
@@ -6510,22 +6510,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="449">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n" s="454">
-        <v>0.11864406779661017</v>
+        <v>0.0</v>
       </c>
       <c r="C24" t="n" s="455">
-        <v>0.05084745762711865</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="D24" t="n" s="456">
-        <v>0.3389830508474576</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="E24" t="n" s="457">
-        <v>0.23728813559322035</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="F24" t="n" s="458">
-        <v>0.2542372881355932</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="G24" t="n" s="459">
         <v>0.0</v>
@@ -6607,31 +6607,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9905292877309604</v>
+        <v>0.5564442113543988</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9905293892464333</v>
+        <v>0.6199535653938804</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.981236480482583</v>
+        <v>0.449226598357773</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.981236480482583</v>
+        <v>0.44922659835777323</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>104.58981105029527</v>
+        <v>1.6312574173637504</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.002465949964084907</v>
+        <v>0.0959530786617055</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>1.347457627118644</v>
+        <v>2.7203389830508473</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>2.0219788815196647</v>
+        <v>1.0556546687534787</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9812364804825829</v>
+        <v>0.44922659835777323</v>
       </c>
     </row>
     <row r="7">
@@ -6678,48 +6678,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9812364804825829</v>
+        <v>0.44922659835777323</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9812364804825829</v>
+        <v>0.44922659835777323</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9628250306298465</v>
+        <v>0.20180453667209564</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9812364804825829</v>
+        <v>0.44922659835777323</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9812364804825829</v>
+        <v>0.44922659835777323</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9812364804825829</v>
+        <v>0.44922659835777323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9628250306298465</v>
+        <v>0.20180453667209564</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9812364804825829</v>
+        <v>0.44922659835777323</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9628250306298465</v>
+        <v>0.20180453667209564</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9812364804825829</v>
+        <v>0.44922659835777323</v>
       </c>
     </row>
     <row r="13">
@@ -6763,54 +6763,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>59.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9953010689753089</v>
+        <v>0.9272908920079694</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9952980660291125</v>
+        <v>0.8512422094673682</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9859162010821277</v>
+        <v>0.5705397159838519</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9812364804825826</v>
+        <v>0.4492265983577732</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>1.3559322033898304</v>
+        <v>2.3389830508474576</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>2.032178310330947</v>
+        <v>1.5603952802870995</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>59.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9952950621259372</v>
+        <v>0.751007164293549</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9952980660291125</v>
+        <v>0.8512422094673682</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9859162010821277</v>
+        <v>0.5705397159838521</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.981236480482583</v>
+        <v>0.4492265983577732</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>1.3389830508474576</v>
+        <v>3.1016949152542375</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>2.030883700056714</v>
+        <v>0.8846373746506938</v>
       </c>
     </row>
     <row r="19">
@@ -6834,16 +6834,16 @@
         <v>37</v>
       </c>
       <c r="C22" t="s" s="567">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="567">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="E22" t="s" s="567">
         <v>40</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="F22" t="s" s="567">
         <v>41</v>
-      </c>
-      <c r="F22" t="s" s="567">
-        <v>42</v>
       </c>
       <c r="G22" t="s" s="567">
         <v>43</v>
@@ -6851,22 +6851,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.6779661016949152</v>
+        <v>0.23728813559322035</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="D23" t="n" s="570">
         <v>0.06779661016949153</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.11864406779661017</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.13559322033898305</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="G23" t="n" s="573">
         <v>0.0</v>
@@ -6874,22 +6874,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.6779661016949152</v>
+        <v>0.0</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.01694915254237288</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.06779661016949153</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.0847457627118644</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.15254237288135594</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="G24" t="n" s="573">
         <v>0.0</v>
@@ -6971,31 +6971,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="604">
-        <v>0.5564442113543988</v>
+        <v>0.8747852233676976</v>
       </c>
       <c r="B6" t="n" s="605">
-        <v>0.6199535653938804</v>
+        <v>0.8752476739142858</v>
       </c>
       <c r="C6" t="n" s="606">
-        <v>0.449226598357773</v>
+        <v>0.7781692499007871</v>
       </c>
       <c r="D6" t="n" s="607">
-        <v>0.44922659835777323</v>
+        <v>0.7781692499007871</v>
       </c>
       <c r="E6" t="n" s="608">
-        <v>1.6312574173637504</v>
+        <v>7.0158826001602925</v>
       </c>
       <c r="F6" t="n" s="609">
-        <v>0.0959530786617055</v>
+        <v>0.03252569465683058</v>
       </c>
       <c r="G6" t="n" s="610">
-        <v>2.7203389830508473</v>
+        <v>2.635593220338983</v>
       </c>
       <c r="H6" t="n" s="611">
-        <v>1.0556546687534787</v>
+        <v>1.166450955538801</v>
       </c>
       <c r="I6" t="n" s="612">
-        <v>0.44922659835777323</v>
+        <v>0.7781692499007871</v>
       </c>
     </row>
     <row r="7">
@@ -7042,48 +7042,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="626">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n" s="631">
-        <v>0.44922659835777323</v>
+        <v>0.7781692499007871</v>
       </c>
       <c r="C11" t="n" s="632">
-        <v>0.44922659835777323</v>
+        <v>0.7781692499007871</v>
       </c>
       <c r="D11" t="n" s="633">
-        <v>0.20180453667209564</v>
+        <v>0.6055473814911535</v>
       </c>
       <c r="E11" t="n" s="634">
-        <v>0.44922659835777323</v>
+        <v>0.7781692499007871</v>
       </c>
       <c r="F11" s="635"/>
       <c r="G11" s="636"/>
       <c r="H11" t="n" s="637">
-        <v>0.44922659835777323</v>
+        <v>0.7781692499007871</v>
       </c>
       <c r="I11" t="n" s="638">
-        <v>0.44922659835777323</v>
+        <v>0.7781692499007871</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="626">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n" s="631">
-        <v>0.20180453667209564</v>
+        <v>0.6055473814911535</v>
       </c>
       <c r="C12" t="n" s="632">
-        <v>0.44922659835777323</v>
+        <v>0.7781692499007871</v>
       </c>
       <c r="D12" s="633"/>
       <c r="E12" s="634"/>
       <c r="F12" s="635"/>
       <c r="G12" s="636"/>
       <c r="H12" t="n" s="637">
-        <v>0.20180453667209564</v>
+        <v>0.6055473814911535</v>
       </c>
       <c r="I12" t="n" s="638">
-        <v>0.44922659835777323</v>
+        <v>0.7781692499007871</v>
       </c>
     </row>
     <row r="13">
@@ -7127,54 +7127,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="652">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n" s="657">
         <v>59.0</v>
       </c>
       <c r="C17" t="n" s="658">
-        <v>0.9272908920079694</v>
+        <v>0.9403356881236795</v>
       </c>
       <c r="D17" t="n" s="659">
-        <v>0.8512422094673682</v>
+        <v>0.9429128405904724</v>
       </c>
       <c r="E17" t="n" s="660">
-        <v>0.5705397159838519</v>
+        <v>0.8317802087666971</v>
       </c>
       <c r="F17" t="n" s="661">
-        <v>0.4492265983577732</v>
+        <v>0.7781692499007873</v>
       </c>
       <c r="G17" t="n" s="662">
-        <v>2.3389830508474576</v>
+        <v>2.8135593220338984</v>
       </c>
       <c r="H17" t="n" s="663">
-        <v>1.5603952802870995</v>
+        <v>1.2102233517311565</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="652">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n" s="657">
         <v>59.0</v>
       </c>
       <c r="C18" t="n" s="658">
-        <v>0.751007164293549</v>
+        <v>0.9454347339331451</v>
       </c>
       <c r="D18" t="n" s="659">
-        <v>0.8512422094673682</v>
+        <v>0.9429128405904724</v>
       </c>
       <c r="E18" t="n" s="660">
-        <v>0.5705397159838521</v>
+        <v>0.8317802087666971</v>
       </c>
       <c r="F18" t="n" s="661">
-        <v>0.4492265983577732</v>
+        <v>0.7781692499007873</v>
       </c>
       <c r="G18" t="n" s="662">
-        <v>3.1016949152542375</v>
+        <v>2.457627118644068</v>
       </c>
       <c r="H18" t="n" s="663">
-        <v>0.8846373746506938</v>
+        <v>1.2638478997627278</v>
       </c>
     </row>
     <row r="19">
@@ -7215,22 +7215,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="677">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n" s="682">
-        <v>0.23728813559322035</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C23" t="n" s="683">
-        <v>0.0847457627118644</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="D23" t="n" s="684">
-        <v>0.06779661016949153</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="E23" t="n" s="685">
-        <v>0.3220338983050847</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="F23" t="n" s="686">
-        <v>0.288135593220339</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="G23" t="n" s="687">
         <v>0.0</v>
@@ -7238,22 +7238,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="677">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n" s="682">
-        <v>0.0</v>
+        <v>0.11864406779661017</v>
       </c>
       <c r="C24" t="n" s="683">
-        <v>0.0847457627118644</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="D24" t="n" s="684">
-        <v>0.0847457627118644</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E24" t="n" s="685">
-        <v>0.4745762711864407</v>
+        <v>0.23728813559322035</v>
       </c>
       <c r="F24" t="n" s="686">
-        <v>0.3559322033898305</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="G24" t="n" s="687">
         <v>0.0</v>
@@ -7335,31 +7335,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="718">
-        <v>0.8032872778954641</v>
+        <v>0.7975151832783549</v>
       </c>
       <c r="B6" t="n" s="719">
-        <v>0.8166762030438924</v>
+        <v>0.814162894457982</v>
       </c>
       <c r="C6" t="n" s="720">
-        <v>0.9172623504418237</v>
+        <v>0.9083099080086952</v>
       </c>
       <c r="D6" t="n" s="721">
-        <v>0.3081896808156123</v>
+        <v>0.3274073783108584</v>
       </c>
       <c r="E6" t="n" s="722">
-        <v>4.45482919623046</v>
+        <v>4.381056689854106</v>
       </c>
       <c r="F6" t="n" s="723">
-        <v>0.038241807859186946</v>
+        <v>0.03509985737572392</v>
       </c>
       <c r="G6" t="n" s="724">
-        <v>2.8915254237288135</v>
+        <v>2.4180790960451977</v>
       </c>
       <c r="H6" t="n" s="725">
-        <v>0.8485866821374882</v>
+        <v>0.837941024739323</v>
       </c>
       <c r="I6" t="n" s="726">
-        <v>0.2517813809326967</v>
+        <v>0.2550091135752205</v>
       </c>
     </row>
     <row r="7">
@@ -7406,86 +7406,86 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="740">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="745">
-        <v>0.7903591296936148</v>
+        <v>0.779847214216709</v>
       </c>
       <c r="C11" t="n" s="746">
-        <v>0.7998456776962546</v>
+        <v>0.7784465922539869</v>
       </c>
       <c r="D11" t="n" s="747">
-        <v>0.9002743942245555</v>
+        <v>0.8820358753978148</v>
       </c>
       <c r="E11" t="n" s="748">
-        <v>0.3074869465171497</v>
+        <v>0.3051685958384563</v>
       </c>
       <c r="F11" t="n" s="749">
-        <v>3.996144917032788</v>
+        <v>3.5135843775708975</v>
       </c>
       <c r="G11" t="n" s="750">
-        <v>0.040835629372725</v>
+        <v>0.03994774287339923</v>
       </c>
       <c r="H11" t="n" s="751">
-        <v>0.04921726516259911</v>
+        <v>0.04936369037590079</v>
       </c>
       <c r="I11" t="n" s="752">
-        <v>0.253884858562181</v>
+        <v>0.2511301142493335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="740">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="745">
-        <v>0.7975926913843691</v>
+        <v>0.7506773130673577</v>
       </c>
       <c r="C12" t="n" s="746">
-        <v>0.8079535712894181</v>
+        <v>0.7775230868002905</v>
       </c>
       <c r="D12" t="n" s="747">
-        <v>0.8998763017672009</v>
+        <v>0.8786027274142849</v>
       </c>
       <c r="E12" t="n" s="748">
-        <v>0.3185470242384295</v>
+        <v>0.30403605917448495</v>
       </c>
       <c r="F12" t="n" s="749">
-        <v>4.207074178437452</v>
+        <v>3.494848411989319</v>
       </c>
       <c r="G12" t="n" s="750">
-        <v>0.03946089205727163</v>
+        <v>0.04478733688060393</v>
       </c>
       <c r="H12" t="n" s="751">
-        <v>0.04375494289421479</v>
+        <v>0.04879976294683793</v>
       </c>
       <c r="I12" t="n" s="752">
-        <v>0.2602057495204595</v>
+        <v>0.2543578468918573</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="740">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="745">
-        <v>0.7852601712032317</v>
+        <v>0.7425381298213668</v>
       </c>
       <c r="C13" t="n" s="746">
-        <v>0.7951042261466577</v>
+        <v>0.7731948510834903</v>
       </c>
       <c r="D13" t="n" s="747">
-        <v>0.8926913134308491</v>
+        <v>0.8790360135341748</v>
       </c>
       <c r="E13" t="n" s="748">
-        <v>0.30127099570701366</v>
+        <v>0.2988035559907064</v>
       </c>
       <c r="F13" t="n" s="749">
-        <v>3.8805301407327586</v>
+        <v>3.409070979107773</v>
       </c>
       <c r="G13" t="n" s="750">
-        <v>0.0408937943028947</v>
+        <v>0.046860480086431205</v>
       </c>
       <c r="H13" t="n" s="751">
-        <v>0.04621183473495277</v>
+        <v>0.050285473716685465</v>
       </c>
       <c r="I13" t="n" s="752">
         <v>0.2511301142493335</v>
@@ -7493,205 +7493,181 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="740">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="745">
-        <v>0.7875703826076755</v>
+        <v>0.7936671727818152</v>
       </c>
       <c r="C14" t="n" s="746">
-        <v>0.7933795084955418</v>
+        <v>0.8103899851413197</v>
       </c>
       <c r="D14" t="n" s="747">
-        <v>0.8865467454521981</v>
+        <v>0.8918800721142409</v>
       </c>
       <c r="E14" t="n" s="748">
-        <v>0.2990540123501671</v>
+        <v>0.3482148392422146</v>
       </c>
       <c r="F14" t="n" s="749">
-        <v>3.8397910232365464</v>
+        <v>4.273983026399304</v>
       </c>
       <c r="G14" t="n" s="750">
-        <v>0.0395462787100669</v>
+        <v>0.03532139652702826</v>
       </c>
       <c r="H14" t="n" s="751">
-        <v>0.04197789104540783</v>
+        <v>0.07600167954991505</v>
       </c>
       <c r="I14" t="n" s="752">
-        <v>0.2511301142493335</v>
+        <v>0.26689084684886677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="740">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="745">
-        <v>0.773699215086143</v>
+        <v>0.804214637091259</v>
       </c>
       <c r="C15" t="n" s="746">
-        <v>0.787257575308214</v>
+        <v>0.8254279871302767</v>
       </c>
       <c r="D15" t="n" s="747">
-        <v>0.8933170745029901</v>
+        <v>0.8987037204368115</v>
       </c>
       <c r="E15" t="n" s="748">
-        <v>0.29136759174785426</v>
+        <v>0.37147905839253564</v>
       </c>
       <c r="F15" t="n" s="749">
-        <v>3.7005198960610026</v>
+        <v>4.728295066095521</v>
       </c>
       <c r="G15" t="n" s="750">
-        <v>0.043800348972055536</v>
+        <v>0.03374948972789116</v>
       </c>
       <c r="H15" t="n" s="751">
-        <v>0.0470118929155418</v>
+        <v>0.06537875708834377</v>
       </c>
       <c r="I15" t="n" s="752">
-        <v>0.2410380431107948</v>
+        <v>0.2805730841785075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="740">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="745">
-        <v>0.7840899221215367</v>
+        <v>0.7633498457726388</v>
       </c>
       <c r="C16" t="n" s="746">
-        <v>0.8015908430885326</v>
+        <v>0.7836971830794648</v>
       </c>
       <c r="D16" t="n" s="747">
-        <v>0.9035976280345823</v>
+        <v>0.8993343569466278</v>
       </c>
       <c r="E16" t="n" s="748">
-        <v>0.30982071238476355</v>
+        <v>0.3117183232485753</v>
       </c>
       <c r="F16" t="n" s="749">
-        <v>4.040089961403408</v>
+        <v>3.623148298467965</v>
       </c>
       <c r="G16" t="n" s="750">
-        <v>0.04232605886767259</v>
+        <v>0.040121899300634305</v>
       </c>
       <c r="H16" t="n" s="751">
-        <v>0.04648124955809833</v>
+        <v>0.08054385265501904</v>
       </c>
       <c r="I16" t="n" s="752">
-        <v>0.25043021456859815</v>
+        <v>0.23857299400020338</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="740">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="745">
-        <v>0.7857264219263551</v>
+        <v>0.7935544410289597</v>
       </c>
       <c r="C17" t="n" s="746">
-        <v>0.8071078151592966</v>
+        <v>0.8142423593881741</v>
       </c>
       <c r="D17" t="n" s="747">
-        <v>0.8792092940175724</v>
+        <v>0.9130043444875391</v>
       </c>
       <c r="E17" t="n" s="748">
-        <v>0.3173669618379186</v>
+        <v>0.3539717106684511</v>
       </c>
       <c r="F17" t="n" s="749">
-        <v>4.184243212475573</v>
+        <v>4.383358642510331</v>
       </c>
       <c r="G17" t="n" s="750">
-        <v>0.041907588996865176</v>
+        <v>0.0362160353879514</v>
       </c>
       <c r="H17" t="n" s="751">
-        <v>0.03756200048380689</v>
+        <v>0.07925110041567275</v>
       </c>
       <c r="I17" t="n" s="752">
-        <v>0.2738879868501002</v>
+        <v>0.2613300045334989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="740">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="745">
-        <v>0.7776056040873115</v>
+        <v>0.770551191888024</v>
       </c>
       <c r="C18" t="n" s="746">
-        <v>0.8022016122998916</v>
+        <v>0.7893378827692471</v>
       </c>
       <c r="D18" t="n" s="747">
-        <v>0.8771466882037597</v>
+        <v>0.8793658567396923</v>
       </c>
       <c r="E18" t="n" s="748">
-        <v>0.3106434398632927</v>
+        <v>0.31897146043269275</v>
       </c>
       <c r="F18" t="n" s="749">
-        <v>4.055652938466556</v>
+        <v>3.746937955174118</v>
       </c>
       <c r="G18" t="n" s="750">
-        <v>0.04380718808631006</v>
+        <v>0.03806825418175798</v>
       </c>
       <c r="H18" t="n" s="751">
-        <v>0.03950497643096129</v>
+        <v>0.0739875046644202</v>
       </c>
       <c r="I18" t="n" s="752">
-        <v>0.253884858562181</v>
+        <v>0.2385243610028312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="740">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="745">
-        <v>0.7776728960408789</v>
+        <v>0.7791923612492541</v>
       </c>
       <c r="C19" t="n" s="746">
-        <v>0.7947139352207735</v>
+        <v>0.800696599108079</v>
       </c>
       <c r="D19" t="n" s="747">
-        <v>0.9103538319486604</v>
+        <v>0.8898395621747729</v>
       </c>
       <c r="E19" t="n" s="748">
-        <v>0.3007672817471065</v>
+        <v>0.3343028018096089</v>
       </c>
       <c r="F19" t="n" s="749">
-        <v>3.8712512516397215</v>
+        <v>4.017475845995644</v>
       </c>
       <c r="G19" t="n" s="750">
-        <v>0.04383544204229971</v>
+        <v>0.0373604306753017</v>
       </c>
       <c r="H19" t="n" s="751">
-        <v>0.05170068683977997</v>
+        <v>0.07179564982500825</v>
       </c>
       <c r="I19" t="n" s="752">
         <v>0.2511301142493335</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="740">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="745">
-        <v>0.7971694760131863</v>
-      </c>
-      <c r="C20" t="n" s="746">
-        <v>0.8128966083412124</v>
-      </c>
-      <c r="D20" t="n" s="747">
-        <v>0.9207446934992842</v>
-      </c>
-      <c r="E20" t="n" s="748">
-        <v>0.32557184176242704</v>
-      </c>
-      <c r="F20" t="n" s="749">
-        <v>4.344638550559561</v>
-      </c>
-      <c r="G20" t="n" s="750">
-        <v>0.04033867651620081</v>
-      </c>
-      <c r="H20" t="n" s="751">
-        <v>0.05310947158724544</v>
-      </c>
-      <c r="I20" t="n" s="752">
-        <v>0.2602057495204595</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7700,359 +7676,380 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="756">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="756">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="770">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="770">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="770">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="770">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="770">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="770">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="770">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="770">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="770">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="770">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="770">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="770">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="770">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="770">
-        <v>10</v>
+      <c r="A24" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="771">
+        <v>59.0</v>
+      </c>
+      <c r="C24" t="n" s="772">
+        <v>0.7980636410247338</v>
+      </c>
+      <c r="D24" t="n" s="773">
+        <v>0.7432483245097895</v>
+      </c>
+      <c r="E24" t="n" s="774">
+        <v>0.7716358355809851</v>
+      </c>
+      <c r="F24" t="n" s="775">
+        <v>0.7735756317693274</v>
+      </c>
+      <c r="G24" t="n" s="776">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="H24" t="n" s="777">
+        <v>0.4712667436374851</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="766">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="771">
         <v>59.0</v>
       </c>
       <c r="C25" t="n" s="772">
-        <v>0.5485922996667932</v>
+        <v>0.8088591155530099</v>
       </c>
       <c r="D25" t="n" s="773">
-        <v>0.618423284991672</v>
+        <v>0.748804541702511</v>
       </c>
       <c r="E25" t="n" s="774">
-        <v>0.5800929030375569</v>
+        <v>0.7814510337512698</v>
       </c>
       <c r="F25" t="n" s="775">
-        <v>0.4589457514717942</v>
+        <v>0.6759899522438645</v>
       </c>
       <c r="G25" t="n" s="776">
-        <v>3.6779661016949152</v>
+        <v>1.3559322033898304</v>
       </c>
       <c r="H25" t="n" s="777">
-        <v>0.9903095643857286</v>
+        <v>2.032178310330947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="766">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="771">
         <v>59.0</v>
       </c>
       <c r="C26" t="n" s="772">
-        <v>0.46188008840592903</v>
+        <v>0.8327477648335107</v>
       </c>
       <c r="D26" t="n" s="773">
-        <v>0.5536081270626837</v>
+        <v>0.7744751668359471</v>
       </c>
       <c r="E26" t="n" s="774">
-        <v>0.5178945948339024</v>
+        <v>0.8065807878399164</v>
       </c>
       <c r="F26" t="n" s="775">
-        <v>0.3717791316831036</v>
+        <v>0.7132823693591112</v>
       </c>
       <c r="G26" t="n" s="776">
-        <v>4.3559322033898304</v>
+        <v>1.3389830508474576</v>
       </c>
       <c r="H26" t="n" s="777">
-        <v>0.9052092892769811</v>
+        <v>2.030883700056714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="766">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="771">
         <v>59.0</v>
       </c>
       <c r="C27" t="n" s="772">
-        <v>0.598438637100888</v>
+        <v>0.4605422953526384</v>
       </c>
       <c r="D27" t="n" s="773">
-        <v>0.654850500386608</v>
+        <v>0.5320637463051838</v>
       </c>
       <c r="E27" t="n" s="774">
-        <v>0.6386668065907433</v>
+        <v>0.4709703722458015</v>
       </c>
       <c r="F27" t="n" s="775">
-        <v>0.4892387360448916</v>
+        <v>0.34775307767767455</v>
       </c>
       <c r="G27" t="n" s="776">
-        <v>3.4915254237288136</v>
+        <v>3.6779661016949152</v>
       </c>
       <c r="H27" t="n" s="777">
-        <v>1.26454136917006</v>
+        <v>0.9903095643857286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="766">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="771">
         <v>59.0</v>
       </c>
       <c r="C28" t="n" s="772">
-        <v>0.59073029963439</v>
+        <v>0.33586390534497634</v>
       </c>
       <c r="D28" t="n" s="773">
-        <v>0.6678426447477164</v>
+        <v>0.4179296449287301</v>
       </c>
       <c r="E28" t="n" s="774">
-        <v>0.6616166818654725</v>
+        <v>0.34751909057121</v>
       </c>
       <c r="F28" t="n" s="775">
-        <v>0.4646310108674761</v>
+        <v>0.22335503338308835</v>
       </c>
       <c r="G28" t="n" s="776">
-        <v>3.983050847457627</v>
+        <v>4.3559322033898304</v>
       </c>
       <c r="H28" t="n" s="777">
-        <v>1.420193350407744</v>
+        <v>0.9052092892769811</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="766">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="771">
         <v>59.0</v>
       </c>
       <c r="C29" t="n" s="772">
-        <v>0.6951551132986922</v>
+        <v>0.7131544474290318</v>
       </c>
       <c r="D29" t="n" s="773">
-        <v>0.7128872256089335</v>
+        <v>0.7111154062551768</v>
       </c>
       <c r="E29" t="n" s="774">
-        <v>0.6951857529355805</v>
+        <v>0.6483793079209599</v>
       </c>
       <c r="F29" t="n" s="775">
-        <v>0.6094125610509992</v>
+        <v>0.5854624295774591</v>
       </c>
       <c r="G29" t="n" s="776">
-        <v>2.8135593220338984</v>
+        <v>2.3389830508474576</v>
       </c>
       <c r="H29" t="n" s="777">
-        <v>1.2102233517311565</v>
+        <v>1.5603952802870995</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="766">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="771">
         <v>59.0</v>
       </c>
       <c r="C30" t="n" s="772">
-        <v>0.6081401883921019</v>
+        <v>0.45335571817514236</v>
       </c>
       <c r="D30" t="n" s="773">
-        <v>0.6047467623585953</v>
+        <v>0.5038205741304489</v>
       </c>
       <c r="E30" t="n" s="774">
-        <v>0.5691447513810383</v>
+        <v>0.3989184794983103</v>
       </c>
       <c r="F30" t="n" s="775">
-        <v>0.500725061490111</v>
+        <v>0.35278325111569975</v>
       </c>
       <c r="G30" t="n" s="776">
-        <v>2.457627118644068</v>
+        <v>3.1016949152542375</v>
       </c>
       <c r="H30" t="n" s="777">
-        <v>1.2638478997627278</v>
+        <v>0.8846373746506938</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="766">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="771">
         <v>59.0</v>
       </c>
       <c r="C31" t="n" s="772">
-        <v>0.6866436500056927</v>
+        <v>0.658136510732079</v>
       </c>
       <c r="D31" t="n" s="773">
-        <v>0.5605236237511037</v>
+        <v>0.6755315644197648</v>
       </c>
       <c r="E31" t="n" s="774">
-        <v>0.5796194459607882</v>
+        <v>0.6517517981367846</v>
       </c>
       <c r="F31" t="n" s="775">
-        <v>0.5239144026483374</v>
+        <v>0.551419099541927</v>
       </c>
       <c r="G31" t="n" s="776">
-        <v>1.3559322033898304</v>
+        <v>2.8135593220338984</v>
       </c>
       <c r="H31" t="n" s="777">
-        <v>2.032178310330947</v>
+        <v>1.2102233517311565</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="766">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="771">
         <v>59.0</v>
       </c>
       <c r="C32" t="n" s="772">
-        <v>0.722011951217407</v>
+        <v>0.6012998635554706</v>
       </c>
       <c r="D32" t="n" s="773">
-        <v>0.59992534854965</v>
+        <v>0.6003161075998518</v>
       </c>
       <c r="E32" t="n" s="774">
-        <v>0.6208160434837168</v>
+        <v>0.5621571819577242</v>
       </c>
       <c r="F32" t="n" s="775">
-        <v>0.572164964515681</v>
+        <v>0.4770560504110713</v>
       </c>
       <c r="G32" t="n" s="776">
-        <v>1.3389830508474576</v>
+        <v>2.457627118644068</v>
       </c>
       <c r="H32" t="n" s="777">
-        <v>2.030883700056714</v>
+        <v>1.2638478997627278</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="766">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="771">
-        <v>59.0</v>
-      </c>
-      <c r="C33" t="n" s="772">
-        <v>0.6688772636445882</v>
-      </c>
-      <c r="D33" t="n" s="773">
-        <v>0.6578024054893724</v>
-      </c>
-      <c r="E33" t="n" s="774">
-        <v>0.6010056245882185</v>
-      </c>
-      <c r="F33" t="n" s="775">
-        <v>0.5464157565902082</v>
-      </c>
-      <c r="G33" t="n" s="776">
-        <v>2.3389830508474576</v>
-      </c>
-      <c r="H33" t="n" s="777">
-        <v>1.5603952802870995</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="766">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="771">
-        <v>59.0</v>
-      </c>
-      <c r="C34" t="n" s="772">
-        <v>0.46740463000406157</v>
-      </c>
-      <c r="D34" t="n" s="773">
-        <v>0.5124407258278633</v>
-      </c>
-      <c r="E34" t="n" s="774">
-        <v>0.4193913156652674</v>
-      </c>
-      <c r="F34" t="n" s="775">
-        <v>0.37997884997042797</v>
-      </c>
-      <c r="G34" t="n" s="776">
-        <v>3.1016949152542375</v>
-      </c>
-      <c r="H34" t="n" s="777">
-        <v>0.8846373746506938</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="781">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="795">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="795">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="795">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="795">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="795">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="795">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="795">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="781">
-        <v>36</v>
+      <c r="A37" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="796">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="C37" t="n" s="797">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="D37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="802">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="795">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="795">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="795">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="795">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="795">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="795">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="795">
-        <v>43</v>
+      <c r="A38" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="796">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="C38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="799">
+        <v>0.06779661016949153</v>
+      </c>
+      <c r="F38" t="n" s="800">
+        <v>0.11864406779661017</v>
+      </c>
+      <c r="G38" t="n" s="801">
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="H38" t="n" s="802">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="791">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="796">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="C39" t="n" s="797">
         <v>0.0</v>
       </c>
-      <c r="C39" t="n" s="797">
+      <c r="D39" t="n" s="798">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="E39" t="n" s="799">
         <v>0.06779661016949153</v>
       </c>
-      <c r="D39" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="799">
-        <v>0.288135593220339</v>
-      </c>
       <c r="F39" t="n" s="800">
-        <v>0.4745762711864407</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G39" t="n" s="801">
-        <v>0.1694915254237288</v>
+        <v>0.15254237288135594</v>
       </c>
       <c r="H39" t="n" s="802">
         <v>0.0</v>
@@ -8060,25 +8057,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="791">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="796">
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="797">
+        <v>0.06779661016949153</v>
+      </c>
+      <c r="D40" t="n" s="798">
         <v>0.0</v>
       </c>
-      <c r="D40" t="n" s="798">
-        <v>0.03389830508474576</v>
-      </c>
       <c r="E40" t="n" s="799">
-        <v>0.1864406779661017</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="F40" t="n" s="800">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="G40" t="n" s="801">
         <v>0.1694915254237288</v>
-      </c>
-      <c r="G40" t="n" s="801">
-        <v>0.6101694915254238</v>
       </c>
       <c r="H40" t="n" s="802">
         <v>0.0</v>
@@ -8086,25 +8083,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="791">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="796">
-        <v>0.05084745762711865</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n" s="797">
-        <v>0.05084745762711865</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="798">
-        <v>0.01694915254237288</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="E41" t="n" s="799">
-        <v>0.3050847457627119</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="F41" t="n" s="800">
-        <v>0.3898305084745763</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="G41" t="n" s="801">
-        <v>0.1864406779661017</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="H41" t="n" s="802">
         <v>0.0</v>
@@ -8112,25 +8109,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="791">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="796">
-        <v>0.05084745762711865</v>
+        <v>0.23728813559322035</v>
       </c>
       <c r="C42" t="n" s="797">
-        <v>0.01694915254237288</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="D42" t="n" s="798">
-        <v>0.05084745762711865</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="E42" t="n" s="799">
-        <v>0.23728813559322035</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="F42" t="n" s="800">
-        <v>0.06779661016949153</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="G42" t="n" s="801">
-        <v>0.576271186440678</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="802">
         <v>0.0</v>
@@ -8138,22 +8135,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="791">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n" s="797">
         <v>0.0847457627118644</v>
       </c>
-      <c r="C43" t="n" s="797">
-        <v>0.01694915254237288</v>
-      </c>
       <c r="D43" t="n" s="798">
-        <v>0.2711864406779661</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="E43" t="n" s="799">
-        <v>0.2542372881355932</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="F43" t="n" s="800">
-        <v>0.3728813559322034</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="G43" t="n" s="801">
         <v>0.0</v>
@@ -8164,22 +8161,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="791">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="796">
-        <v>0.11864406779661017</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C44" t="n" s="797">
-        <v>0.05084745762711865</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="D44" t="n" s="798">
-        <v>0.3389830508474576</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="E44" t="n" s="799">
-        <v>0.23728813559322035</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="F44" t="n" s="800">
-        <v>0.2542372881355932</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="G44" t="n" s="801">
         <v>0.0</v>
@@ -8190,105 +8187,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="791">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="796">
-        <v>0.6779661016949152</v>
+        <v>0.11864406779661017</v>
       </c>
       <c r="C45" t="n" s="797">
+        <v>0.05084745762711865</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.23728813559322035</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
       </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.11864406779661017</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.13559322033898305</v>
-      </c>
       <c r="H45" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="791">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="796">
-        <v>0.6779661016949152</v>
-      </c>
-      <c r="C46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="798">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.15254237288135594</v>
-      </c>
-      <c r="H46" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="791">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="796">
-        <v>0.23728813559322035</v>
-      </c>
-      <c r="C47" t="n" s="797">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="E47" t="n" s="799">
-        <v>0.3220338983050847</v>
-      </c>
-      <c r="F47" t="n" s="800">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="G47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="791">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="C48" t="n" s="797">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="D48" t="n" s="798">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="E48" t="n" s="799">
-        <v>0.4745762711864407</v>
-      </c>
-      <c r="F48" t="n" s="800">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="G48" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
